--- a/01_Input/00_CO Validation/Azerbaijan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Azerbaijan - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_6FB48EA4057824A6A2EAF8CC123C2982448AF924" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12859BB-E947-477B-8721-B7EF233C7BFB}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_6FB48EA4057824A6A2EAF8CC123C2982448AF924" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907A5EEF-C5D2-4219-9F87-E88BAC201F7A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,26 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={8831F57E-F263-4DF6-8BB1-A2E0DA0C9D48}</author>
-  </authors>
-  <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{8831F57E-F263-4DF6-8BB1-A2E0DA0C9D48}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I'm not sure whether this project should includes 10kWh PV as an indicator</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>Project ID</t>
   </si>
@@ -84,7 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -103,6 +88,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Energy Efficiency in Barda and Ganja</t>
@@ -195,13 +189,10 @@
 UNDP</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
   </si>
   <si>
     <t>Education Services</t>
@@ -224,10 +215,10 @@
     <t>VF</t>
   </si>
   <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indirect Beneficiaries </t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
@@ -306,61 +297,76 @@
     <t xml:space="preserve">We have corrected the budget figure. The number of direct beneficiaries is about 3000, including school children, their teachers, their parents, school support staff, residnet of the multistore building, their relatives that will enjoy excellent and convenient venue for family and clan gatherings. The number of indirect beneficiaries is about 4 hundred thousand, including residents of Ganja, Barda and surrounding rayons, covered by TV- and Radio-based awareness-raising activities. </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructire Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -375,13 +381,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -390,19 +393,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -415,12 +418,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,8 +468,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,48 +491,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -629,17 +609,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -685,56 +654,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,32 +698,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,62 +732,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,12 +812,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="ardhi.wardhana@columbia.edu" id="{FA1655CE-1DFE-4EDC-A6B7-8E9172E3E0F3}" userId="S::urn:spo:guest#ardhi.wardhana@columbia.edu::" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,20 +1099,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I2" dT="2023-09-14T11:37:15.72" personId="{FA1655CE-1DFE-4EDC-A6B7-8E9172E3E0F3}" id="{8831F57E-F263-4DF6-8BB1-A2E0DA0C9D48}">
-    <text>I'm not sure whether this project should includes 10kWh PV as an indicator</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674C097-4D88-4B78-B0C6-CA28748278E0}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674C097-4D88-4B78-B0C6-CA28748278E0}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,212 +1117,245 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="153.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="408" customHeight="1">
-      <c r="A2" s="24">
+      <c r="S1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="408" customHeight="1">
+      <c r="A2" s="22">
         <v>142807</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="43">
+      <c r="B2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="39">
         <v>885772</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="29">
+      <c r="E2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="26">
         <v>0</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="26">
         <v>3000</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="J2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" ht="207" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="40" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="29">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" ht="207" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="31">
         <v>120</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="24">
+      <c r="I3" s="23"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="47"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="22">
         <v>6479</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="31">
+      <c r="B4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="28">
         <v>4521005</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26">
         <v>0</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="31">
         <v>10000</v>
       </c>
-      <c r="I4" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="I4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="47"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{A4F999EB-51D0-4D7D-B133-EBD348EA2254}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{7E42EB3A-A1DB-4A5B-AF55-18DC282B16B4}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{62853A3B-E996-41F7-91AC-737D572AD72A}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{1251D9B4-0232-4316-9FD0-92490CD4BE1B}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{11B1DEF7-5EFC-47D5-90AB-C114B6394FBC}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{182DB1B9-0E96-4CA9-BB58-5C00B0A3D15D}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{F697D18C-D1CB-4F91-99C5-894B3731A8A0}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{CAC3502A-6901-47C0-8110-201BA0EB70AF}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{B1C063A2-0C67-4829-A2E0-D8C320656948}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{8A257FDA-DDD0-4C8C-A8B1-C911CBA4A519}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{B5C561BC-4D3A-4635-AA1B-128A742DE4F4}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00A8DA55-CB03-4264-94E0-A7BE9075D4FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B0419B1-5750-4B5F-8C2F-1226D6F9AB64}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1409,118 +1384,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="408.75" customHeight="1">
+      <c r="A2" s="12">
+        <v>142807</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="14">
+        <v>400000</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="12">
+        <v>6479</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4521005</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="408.75" customHeight="1">
-      <c r="A2" s="14">
-        <v>142807</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="16">
-        <v>400000</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="14">
-        <v>6479</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="14">
-        <v>4521005</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1508,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42888C2C-5726-4896-8C8F-94924B063C92}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -1584,10 +1559,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1596,19 +1571,19 @@
         <v>142807</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>885772</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1617,7 +1592,7 @@
         <v>400000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1625,10 +1600,10 @@
         <v>6479</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>4521005</v>
@@ -1640,7 +1615,7 @@
         <v>10000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1628,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -1665,194 +1640,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="47"/>
-      <c r="B3" t="s">
+      <c r="B3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="47"/>
-      <c r="B4" t="s">
+      <c r="B4" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="48"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="48"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="48"/>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="48"/>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="48" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="49" t="s">
+      <c r="B10" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="49"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" s="43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="50" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" s="49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="50"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="50"/>
-      <c r="B14" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B16" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="B18" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="48" t="s">
         <v>74</v>
       </c>
+      <c r="B19" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2101,6 +2081,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2113,11 +2102,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12583A6-CC9A-40E1-BB01-486017733F5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61C45F7-4882-4A2D-BA72-93BEDDA935EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61C45F7-4882-4A2D-BA72-93BEDDA935EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12583A6-CC9A-40E1-BB01-486017733F5A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Azerbaijan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Azerbaijan - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_6FB48EA4057824A6A2EAF8CC123C2982448AF924" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907A5EEF-C5D2-4219-9F87-E88BAC201F7A}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="11_6FB48EA4057824A6A2EAF8CC123C2982448AF924" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA80FDB-364D-4657-BDA9-9D4F2840FD9A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>http://open.undp.org/projects/00142807</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Energy Efficiency Services</t>
   </si>
   <si>
     <t>Number of people covered</t>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>US$885772</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
   </si>
   <si>
     <r>
@@ -348,13 +351,10 @@
     <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
   </si>
   <si>
-    <t>Energy Efficiency Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
   </si>
   <si>
-    <t>Energy Infrastructire Services</t>
+    <t>Energy Infrastructure Services</t>
   </si>
   <si>
     <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A674C097-4D88-4B78-B0C6-CA28748278E0}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1441,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>24</v>
@@ -1456,7 +1456,7 @@
         <v>400000</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1580,7 +1580,7 @@
         <v>885772</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
@@ -1592,7 +1592,7 @@
         <v>400000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1661,58 +1661,58 @@
     </row>
     <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
       <c r="A5" s="48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
       <c r="A6" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
       <c r="A7" s="48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
       <c r="A8" s="48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
@@ -1720,20 +1720,20 @@
         <v>29</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="48" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>60</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="48" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>63</v>
@@ -1833,8 +1833,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1859,6 +1868,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1938,6 +1948,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2081,15 +2096,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2102,11 +2108,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61C45F7-4882-4A2D-BA72-93BEDDA935EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12583A6-CC9A-40E1-BB01-486017733F5A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12583A6-CC9A-40E1-BB01-486017733F5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C680306A-1699-4BFA-A285-7A000D178406}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
